--- a/生活/aar.xlsx
+++ b/生活/aar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,14 @@
 2、遇到突发情况，分清楚事情优先级，然后做好一件事，再去做另一件事。
 3、再好的关系都不能随便折腾，这是不对的。
 4、没分清楚优先级，应该早点去借手机的，早点回归争取时间，一拖再拖。很严重的错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简要描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看牙医没处理好工作就走了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,11 +105,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -110,6 +133,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -406,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -416,30 +445,37 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="46.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="64.75" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="46.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="64.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" customHeight="1">
+    <row r="1" spans="1:4" ht="25.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="82.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" ht="82.5">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
